--- a/public/employees.xlsx
+++ b/public/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\react\lucky-draw\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A365F-FDB4-4A07-9190-7F0645A26B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815751A-BABB-45D1-B3C8-E3ED3CC8788F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70EF5747-069E-4E0B-A6D6-A2157A90F64C}"/>
   </bookViews>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/employees.xlsx
+++ b/public/employees.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\react\lucky-draw\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\React\Lucky\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F815751A-BABB-45D1-B3C8-E3ED3CC8788F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3FC0A3-8099-404D-A3D9-9854073CC706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{70EF5747-069E-4E0B-A6D6-A2157A90F64C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{70EF5747-069E-4E0B-A6D6-A2157A90F64C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>Mã nhân viên</t>
   </si>
@@ -52,9 +51,6 @@
   </si>
   <si>
     <t>Nguyễn Thị Phương Hoa</t>
-  </si>
-  <si>
-    <t>Lê Thăng Long</t>
   </si>
   <si>
     <t>Vũ Minh Hiếu</t>
@@ -1224,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5326ED1-5381-4F4B-907B-E9EA28CAE53A}">
-  <dimension ref="A1:B259"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1253,7 @@
         <v>2501003</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1265,7 +1261,7 @@
         <v>2501002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1273,7 +1269,7 @@
         <v>2501004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1281,7 +1277,7 @@
         <v>2501007</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1289,7 +1285,7 @@
         <v>2501006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1297,7 +1293,7 @@
         <v>2501009</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1305,7 +1301,7 @@
         <v>2501010</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1313,7 +1309,7 @@
         <v>2501012</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1321,7 +1317,7 @@
         <v>2501018</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1329,7 +1325,7 @@
         <v>2501011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1337,7 +1333,7 @@
         <v>2501014</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1345,7 +1341,7 @@
         <v>2501017</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1353,7 +1349,7 @@
         <v>2501016</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1361,7 +1357,7 @@
         <v>2501008</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1369,7 +1365,7 @@
         <v>2501005</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1377,7 +1373,7 @@
         <v>2501015</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1385,7 +1381,7 @@
         <v>2501129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1393,7 +1389,7 @@
         <v>2501128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1401,7 +1397,7 @@
         <v>2501130</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1409,7 +1405,7 @@
         <v>2501131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1417,7 +1413,7 @@
         <v>2501027</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1425,7 +1421,7 @@
         <v>2501024</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1433,7 +1429,7 @@
         <v>2501031</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1441,7 +1437,7 @@
         <v>2501020</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1449,7 +1445,7 @@
         <v>2501019</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1457,7 +1453,7 @@
         <v>2501021</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1465,7 +1461,7 @@
         <v>2501033</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1473,15 +1469,15 @@
         <v>2501025</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2501026</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1489,7 +1485,7 @@
         <v>2501013</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1497,7 +1493,7 @@
         <v>2501030</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1505,7 +1501,7 @@
         <v>2501029</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1513,7 +1509,7 @@
         <v>2501028</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1521,7 +1517,7 @@
         <v>2501032</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1529,7 +1525,7 @@
         <v>2501022</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1537,7 +1533,7 @@
         <v>2501133</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1545,7 +1541,7 @@
         <v>2501132</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1553,7 +1549,7 @@
         <v>2501023</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1561,7 +1557,7 @@
         <v>2501039</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1569,7 +1565,7 @@
         <v>2501120</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1577,7 +1573,7 @@
         <v>2501040</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1585,7 +1581,7 @@
         <v>2501119</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1593,7 +1589,7 @@
         <v>2501115</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1601,7 +1597,7 @@
         <v>2501038</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1609,7 +1605,7 @@
         <v>2501108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1617,7 +1613,7 @@
         <v>2501109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1625,7 +1621,7 @@
         <v>2501106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1633,7 +1629,7 @@
         <v>2501107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1641,7 +1637,7 @@
         <v>2501114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1649,7 +1645,7 @@
         <v>2501110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1657,7 +1653,7 @@
         <v>2501118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,7 +1661,7 @@
         <v>2501111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1673,7 +1669,7 @@
         <v>2501113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1681,7 +1677,7 @@
         <v>2501116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1689,7 +1685,7 @@
         <v>2501117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1697,7 +1693,7 @@
         <v>2501112</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1705,7 +1701,7 @@
         <v>2501034</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1713,7 +1709,7 @@
         <v>2501035</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1721,7 +1717,7 @@
         <v>2501036</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1729,7 +1725,7 @@
         <v>2501037</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1737,7 +1733,7 @@
         <v>2501049</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1745,7 +1741,7 @@
         <v>2501050</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1753,7 +1749,7 @@
         <v>2501058</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1761,7 +1757,7 @@
         <v>2501051</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1769,7 +1765,7 @@
         <v>2501059</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1777,7 +1773,7 @@
         <v>2501060</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1785,7 +1781,7 @@
         <v>2501061</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,7 +1789,7 @@
         <v>2501062</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1801,7 +1797,7 @@
         <v>2501052</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1809,7 +1805,7 @@
         <v>2501053</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1817,7 +1813,7 @@
         <v>2501054</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1825,7 +1821,7 @@
         <v>2501055</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1833,7 +1829,7 @@
         <v>2501056</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1841,7 +1837,7 @@
         <v>2501063</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1849,7 +1845,7 @@
         <v>2501041</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1857,7 +1853,7 @@
         <v>2501042</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1865,7 +1861,7 @@
         <v>2501043</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1873,7 +1869,7 @@
         <v>2501044</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1881,7 +1877,7 @@
         <v>2501045</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1889,7 +1885,7 @@
         <v>2501046</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1897,7 +1893,7 @@
         <v>2501047</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1905,7 +1901,7 @@
         <v>2501048</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1913,7 +1909,7 @@
         <v>2501057</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1921,7 +1917,7 @@
         <v>2501073</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1929,7 +1925,7 @@
         <v>2501089</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1937,7 +1933,7 @@
         <v>2501074</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1945,7 +1941,7 @@
         <v>2501075</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1953,7 +1949,7 @@
         <v>2501076</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1961,7 +1957,7 @@
         <v>2501090</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1969,7 +1965,7 @@
         <v>2501091</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1977,7 +1973,7 @@
         <v>2501092</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1985,7 +1981,7 @@
         <v>2501078</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -1993,7 +1989,7 @@
         <v>2501079</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2001,7 +1997,7 @@
         <v>2501093</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2009,7 +2005,7 @@
         <v>2501080</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2017,15 +2013,15 @@
         <v>2501081</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2501082</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2033,7 +2029,7 @@
         <v>2501083</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2041,7 +2037,7 @@
         <v>2501084</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2049,7 +2045,7 @@
         <v>2501085</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2057,7 +2053,7 @@
         <v>2501065</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2065,7 +2061,7 @@
         <v>2501066</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2073,7 +2069,7 @@
         <v>2501067</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2081,7 +2077,7 @@
         <v>2501068</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2089,7 +2085,7 @@
         <v>2501069</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2097,7 +2093,7 @@
         <v>2501071</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,7 +2101,7 @@
         <v>2501086</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2113,7 +2109,7 @@
         <v>2501087</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2121,7 +2117,7 @@
         <v>2501088</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2129,7 +2125,7 @@
         <v>2501077</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2137,7 +2133,7 @@
         <v>2501064</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2145,7 +2141,7 @@
         <v>2501070</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2153,7 +2149,7 @@
         <v>2501072</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2161,7 +2157,7 @@
         <v>2501121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2169,7 +2165,7 @@
         <v>2501123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2177,7 +2173,7 @@
         <v>2501124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2185,7 +2181,7 @@
         <v>2501125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2193,7 +2189,7 @@
         <v>2501126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2201,7 +2197,7 @@
         <v>2501127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2209,7 +2205,7 @@
         <v>2501100</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2217,7 +2213,7 @@
         <v>2501095</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2225,7 +2221,7 @@
         <v>2501096</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2233,7 +2229,7 @@
         <v>2501097</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2241,7 +2237,7 @@
         <v>2501098</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2249,7 +2245,7 @@
         <v>2501099</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2257,7 +2253,7 @@
         <v>2501101</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2265,7 +2261,7 @@
         <v>2501102</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2273,7 +2269,7 @@
         <v>2501103</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2281,7 +2277,7 @@
         <v>2501104</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2289,7 +2285,7 @@
         <v>2501105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2297,7 +2293,7 @@
         <v>2501094</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2305,7 +2301,7 @@
         <v>2501158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2313,7 +2309,7 @@
         <v>2501134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2321,7 +2317,7 @@
         <v>2501135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2329,7 +2325,7 @@
         <v>2501137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2337,7 +2333,7 @@
         <v>2501140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2345,7 +2341,7 @@
         <v>2501142</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2353,7 +2349,7 @@
         <v>2501144</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2361,7 +2357,7 @@
         <v>2501157</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2369,7 +2365,7 @@
         <v>2501148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2377,7 +2373,7 @@
         <v>2501149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2385,7 +2381,7 @@
         <v>2501151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2393,7 +2389,7 @@
         <v>2501155</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2401,7 +2397,7 @@
         <v>2501156</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2409,7 +2405,7 @@
         <v>2502195</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2425,7 +2421,7 @@
         <v>2502194</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2433,7 +2429,7 @@
         <v>2502160</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2441,7 +2437,7 @@
         <v>2502161</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2449,7 +2445,7 @@
         <v>2502193</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2457,7 +2453,7 @@
         <v>2502197</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2465,7 +2461,7 @@
         <v>2502196</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2473,7 +2469,7 @@
         <v>2502202</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2481,7 +2477,7 @@
         <v>2502163</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2489,7 +2485,7 @@
         <v>2502164</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2497,7 +2493,7 @@
         <v>2502165</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2505,7 +2501,7 @@
         <v>2502166</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2513,7 +2509,7 @@
         <v>2502167</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2521,7 +2517,7 @@
         <v>2502168</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2529,7 +2525,7 @@
         <v>2502169</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2537,7 +2533,7 @@
         <v>2502170</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2545,7 +2541,7 @@
         <v>2502171</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2553,7 +2549,7 @@
         <v>2502172</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2561,7 +2557,7 @@
         <v>2502173</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2569,7 +2565,7 @@
         <v>2502174</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2577,7 +2573,7 @@
         <v>2502175</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2585,7 +2581,7 @@
         <v>2502176</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2593,7 +2589,7 @@
         <v>2502177</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2601,7 +2597,7 @@
         <v>2502178</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2609,7 +2605,7 @@
         <v>2502179</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2617,7 +2613,7 @@
         <v>2502180</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2625,7 +2621,7 @@
         <v>2502181</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2633,7 +2629,7 @@
         <v>2502182</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2641,7 +2637,7 @@
         <v>2502183</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2649,7 +2645,7 @@
         <v>2502184</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2657,7 +2653,7 @@
         <v>2502185</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2665,7 +2661,7 @@
         <v>2502186</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2673,7 +2669,7 @@
         <v>2502187</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2681,7 +2677,7 @@
         <v>2502188</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2689,7 +2685,7 @@
         <v>2502189</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2697,7 +2693,7 @@
         <v>2502190</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2705,7 +2701,7 @@
         <v>2502191</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2713,7 +2709,7 @@
         <v>2502201</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2721,7 +2717,7 @@
         <v>2502192</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2729,7 +2725,7 @@
         <v>2502198</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2737,7 +2733,7 @@
         <v>2502199</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2745,7 +2741,7 @@
         <v>2502200</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2753,7 +2749,7 @@
         <v>2502204</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2761,7 +2757,7 @@
         <v>2502203</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2769,7 +2765,7 @@
         <v>2502205</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2777,7 +2773,7 @@
         <v>2503215</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2785,7 +2781,7 @@
         <v>2503208</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2793,7 +2789,7 @@
         <v>2503222</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2801,7 +2797,7 @@
         <v>2503210</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2809,7 +2805,7 @@
         <v>2503213</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2817,7 +2813,7 @@
         <v>2503206</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2825,7 +2821,7 @@
         <v>2503207</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2833,7 +2829,7 @@
         <v>2503209</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2841,7 +2837,7 @@
         <v>2503211</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2849,15 +2845,15 @@
         <v>2503212</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2503214</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2865,7 +2861,7 @@
         <v>2503221</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2873,7 +2869,7 @@
         <v>2503217</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2881,7 +2877,7 @@
         <v>2503218</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2889,7 +2885,7 @@
         <v>2503219</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2905,7 +2901,7 @@
         <v>2503225</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2913,7 +2909,7 @@
         <v>2503223</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2921,7 +2917,7 @@
         <v>2503224</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2929,28 +2925,28 @@
         <v>2503227</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>2501159</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>2503228</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
-        <v>2501159</v>
-      </c>
-      <c r="B214" s="4" t="s">
+      <c r="A214" s="1">
+        <v>2505231</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>2505231</v>
+        <v>2505238</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>218</v>
@@ -2958,7 +2954,7 @@
     </row>
     <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>2505238</v>
+        <v>2505232</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>219</v>
@@ -2966,7 +2962,7 @@
     </row>
     <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>2505232</v>
+        <v>2505233</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>220</v>
@@ -2974,23 +2970,23 @@
     </row>
     <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>2505233</v>
+        <v>2505234</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>2505234</v>
+        <v>2505235</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>2505235</v>
+        <v>2505236</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>222</v>
@@ -2998,23 +2994,23 @@
     </row>
     <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>2505236</v>
+        <v>2505237</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>2505237</v>
+        <v>2506239</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>2506239</v>
+        <v>2506240</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>225</v>
@@ -3022,39 +3018,39 @@
     </row>
     <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>2506240</v>
+        <v>2506241</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>2506241</v>
+        <v>2506243</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>2506243</v>
+        <v>2507244</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>2507244</v>
+        <v>2507245</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>2507245</v>
+        <v>2507246</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>228</v>
@@ -3062,7 +3058,7 @@
     </row>
     <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>2507246</v>
+        <v>2508248</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>229</v>
@@ -3070,7 +3066,7 @@
     </row>
     <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>2508248</v>
+        <v>2508249</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>230</v>
@@ -3078,7 +3074,7 @@
     </row>
     <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>2508249</v>
+        <v>2508250</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>231</v>
@@ -3086,7 +3082,7 @@
     </row>
     <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>2508250</v>
+        <v>2508251</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>232</v>
@@ -3094,7 +3090,7 @@
     </row>
     <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>2508251</v>
+        <v>2508252</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>233</v>
@@ -3102,7 +3098,7 @@
     </row>
     <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>2508252</v>
+        <v>2508253</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>234</v>
@@ -3110,15 +3106,15 @@
     </row>
     <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>2508253</v>
+        <v>2508254</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>2508254</v>
+        <v>2508255</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>236</v>
@@ -3126,7 +3122,7 @@
     </row>
     <row r="237" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>2508255</v>
+        <v>2508256</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>237</v>
@@ -3134,7 +3130,7 @@
     </row>
     <row r="238" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>2508256</v>
+        <v>2508257</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>238</v>
@@ -3142,7 +3138,7 @@
     </row>
     <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>2508257</v>
+        <v>2509258</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>239</v>
@@ -3150,7 +3146,7 @@
     </row>
     <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>2509258</v>
+        <v>2509259</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>240</v>
@@ -3158,7 +3154,7 @@
     </row>
     <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>2509259</v>
+        <v>2509260</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>241</v>
@@ -3166,7 +3162,7 @@
     </row>
     <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>2509260</v>
+        <v>2509261</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>242</v>
@@ -3174,7 +3170,7 @@
     </row>
     <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>2509261</v>
+        <v>2509262</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>243</v>
@@ -3182,7 +3178,7 @@
     </row>
     <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>2509262</v>
+        <v>2509264</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>244</v>
@@ -3190,7 +3186,7 @@
     </row>
     <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>2509264</v>
+        <v>2509265</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>245</v>
@@ -3198,7 +3194,7 @@
     </row>
     <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>2509265</v>
+        <v>2509266</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>246</v>
@@ -3206,7 +3202,7 @@
     </row>
     <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>2509266</v>
+        <v>2509267</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>247</v>
@@ -3214,7 +3210,7 @@
     </row>
     <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>2509267</v>
+        <v>2509268</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>248</v>
@@ -3222,7 +3218,7 @@
     </row>
     <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>2509268</v>
+        <v>2509269</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>249</v>
@@ -3230,7 +3226,7 @@
     </row>
     <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>2509269</v>
+        <v>2509270</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>250</v>
@@ -3238,7 +3234,7 @@
     </row>
     <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>2509270</v>
+        <v>2509271</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>251</v>
@@ -3246,7 +3242,7 @@
     </row>
     <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>2509271</v>
+        <v>2509272</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>252</v>
@@ -3254,7 +3250,7 @@
     </row>
     <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>2509272</v>
+        <v>2510273</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>253</v>
@@ -3262,7 +3258,7 @@
     </row>
     <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>2510273</v>
+        <v>2510274</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>254</v>
@@ -3270,23 +3266,23 @@
     </row>
     <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>2510274</v>
+        <v>2510275</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>2510275</v>
+        <v>2510276</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>2510276</v>
+        <v>2511277</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>257</v>
@@ -3294,18 +3290,10 @@
     </row>
     <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>2511277</v>
+        <v>2511278</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>2511278</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
